--- a/biology/Zoologie/Eurypygiformes/Eurypygiformes.xlsx
+++ b/biology/Zoologie/Eurypygiformes/Eurypygiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eurypygiformes sont un ordre d'oiseaux créé en 2008 par Hackett et al..
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon la classification du Congrès ornithologique international (version 5.1, 2015) :
 famille Rhynochetidae
@@ -547,7 +561,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Shannon J Hackett, Rebecca T Kimball, Sushma Reddy, Rauri C K Bowie, Edward L Braun, Michael J Braun, Jena L Chojnowski, W Andrew Cox, Kin-Lan Han, John Harshman, Christopher J Huddleston, Ben D Marks, Kathleen J Miglia, William S Moore, Frederick H Sheldon, David W Steadman, Christopher C Witt et Tamaki Yuri, « A phylogenomic study of birds reveals their evolutionary history », Science, Amérique septentrionale, AAAS, vol. 320, no 5884,‎ 27 juin 2008, p. 1763-8 (ISSN 0036-8075 et 1095-9203, OCLC 1644869, PMID 18583609, DOI 10.1126/SCIENCE.1157704)</t>
         </is>
